--- a/Resultados/no_elemento_a_danar_18.xlsx
+++ b/Resultados/no_elemento_a_danar_18.xlsx
@@ -59,17 +59,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
